--- a/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
+++ b/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Serie</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5549,6 +5552,23 @@
         <v>2392.5</v>
       </c>
     </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259">
+        <v>477.3</v>
+      </c>
+      <c r="C259">
+        <v>2798.8</v>
+      </c>
+      <c r="D259">
+        <v>409.3</v>
+      </c>
+      <c r="E259">
+        <v>2801.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
+++ b/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Serie</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5569,6 +5572,23 @@
         <v>2801.8</v>
       </c>
     </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260">
+        <v>465</v>
+      </c>
+      <c r="C260">
+        <v>3263.8</v>
+      </c>
+      <c r="D260">
+        <v>555.9</v>
+      </c>
+      <c r="E260">
+        <v>3357.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
+++ b/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5589,6 +5592,23 @@
         <v>3357.8</v>
       </c>
     </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261">
+        <v>461.9</v>
+      </c>
+      <c r="C261">
+        <v>3725.7</v>
+      </c>
+      <c r="D261">
+        <v>573.3</v>
+      </c>
+      <c r="E261">
+        <v>3931.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
+++ b/11/1/6/Producción y exportaciones de cobre 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Serie</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5597,16 +5600,33 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>461.9</v>
+        <v>462.8</v>
       </c>
       <c r="C261">
-        <v>3725.7</v>
+        <v>3726.6</v>
       </c>
       <c r="D261">
         <v>573.3</v>
       </c>
       <c r="E261">
         <v>3931.1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262">
+        <v>447.4</v>
+      </c>
+      <c r="C262">
+        <v>4174</v>
+      </c>
+      <c r="D262">
+        <v>423.6</v>
+      </c>
+      <c r="E262">
+        <v>4354.6</v>
       </c>
     </row>
   </sheetData>
